--- a/Расчеты.xlsx
+++ b/Расчеты.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Доход USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">Бюджет (свободные USDT)</t>
+    <t xml:space="preserve">Бюджет (свободные USDT</t>
   </si>
   <si>
     <t xml:space="preserve">Продается монет BTC</t>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,14 +556,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="n">
         <f aca="false">D5-E12</f>
-        <v>0.693245707075959</v>
+        <v>0.68670565323562</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="n">
         <f aca="false">(100-I5)/100</f>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +582,7 @@
       </c>
       <c r="I3" s="11" t="n">
         <f aca="false">1+(I6/100)</f>
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,7 +592,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="n">
         <f aca="false">B3+C8</f>
-        <v>0.766218939399744</v>
+        <v>0.735260598413896</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -607,14 +607,14 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="n">
         <f aca="false">C4+D8</f>
-        <v>0.806546251999731</v>
+        <v>0.742687473145349</v>
       </c>
       <c r="E5" s="4"/>
       <c r="H5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,21 +626,21 @@
       </c>
       <c r="C6" s="15" t="n">
         <f aca="false">B6*I2</f>
-        <v>130.511</v>
+        <v>136.0062</v>
       </c>
       <c r="D6" s="15" t="n">
         <f aca="false">C6*I2</f>
-        <v>123.98545</v>
+        <v>134.646138</v>
       </c>
       <c r="E6" s="15" t="n">
         <f aca="false">B6*I3</f>
-        <v>144.249</v>
+        <v>145.6228</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,15 +652,15 @@
       </c>
       <c r="C7" s="18" t="n">
         <f aca="false">B3*C6</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7" s="18" t="n">
         <f aca="false">C4*D6</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E7" s="18" t="n">
         <f aca="false">D5*E6</f>
-        <v>116.343490304709</v>
+        <v>108.152229364351</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,11 +673,11 @@
       </c>
       <c r="C8" s="19" t="n">
         <f aca="false">C9/C6</f>
-        <v>0.0383109469699872</v>
+        <v>0.00735260598413885</v>
       </c>
       <c r="D8" s="19" t="n">
         <f aca="false">D9/D6</f>
-        <v>0.0403273125999867</v>
+        <v>0.00742687473145349</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="C9" s="18" t="n">
         <f aca="false">B7-C7</f>
-        <v>5</v>
+        <v>0.999999999999986</v>
       </c>
       <c r="D9" s="18" t="n">
         <f aca="false">B7-D7</f>
-        <v>5.00000000000001</v>
+        <v>1</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="E10" s="18" t="n">
         <f aca="false">E7-B7</f>
-        <v>16.3434903047092</v>
+        <v>8.15222936435059</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,15 +729,15 @@
       </c>
       <c r="C11" s="18" t="n">
         <f aca="false">B11-C9</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="18" t="n">
         <f aca="false">C11-D9</f>
-        <v>9.99999999999999</v>
+        <v>18</v>
       </c>
       <c r="E11" s="18" t="n">
         <f aca="false">D11+E10</f>
-        <v>26.3434903047091</v>
+        <v>26.1522293643506</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +755,7 @@
       </c>
       <c r="E12" s="22" t="n">
         <f aca="false">E10/E6</f>
-        <v>0.113300544923772</v>
+        <v>0.0559818199097297</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +767,7 @@
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="n">
         <f aca="false">E11-B11</f>
-        <v>6.34349030470914</v>
+        <v>6.1522293643506</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -778,7 +778,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="n">
         <f aca="false">C17-D25</f>
-        <v>0.693245707075959</v>
+        <v>0.68670565323562</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +799,7 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="n">
         <f aca="false">B16+C21</f>
-        <v>0.766218939399744</v>
+        <v>0.735260598413896</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -820,11 +820,11 @@
       </c>
       <c r="C19" s="15" t="n">
         <f aca="false">B19*I2</f>
-        <v>130.511</v>
+        <v>136.0062</v>
       </c>
       <c r="D19" s="15" t="n">
         <f aca="false">B19*I3</f>
-        <v>144.249</v>
+        <v>145.6228</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,11 +836,11 @@
       </c>
       <c r="C20" s="18" t="n">
         <f aca="false">B16*C19</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" s="18" t="n">
         <f aca="false">C17*D19</f>
-        <v>110.526315789474</v>
+        <v>107.070707070707</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,7 +853,7 @@
       </c>
       <c r="C21" s="19" t="n">
         <f aca="false">C22/C19</f>
-        <v>0.0383109469699872</v>
+        <v>0.00735260598413885</v>
       </c>
       <c r="D21" s="18" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="C22" s="18" t="n">
         <f aca="false">B20-C20</f>
-        <v>5</v>
+        <v>0.999999999999986</v>
       </c>
       <c r="D22" s="18" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" s="18" t="n">
         <f aca="false">D20-B20</f>
-        <v>10.5263157894737</v>
+        <v>7.07070707070707</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,11 +898,11 @@
       </c>
       <c r="C24" s="18" t="n">
         <f aca="false">B24-C22</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="18" t="n">
         <f aca="false">C24+D23</f>
-        <v>25.5263157894737</v>
+        <v>26.0707070707071</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +917,7 @@
       </c>
       <c r="D25" s="22" t="n">
         <f aca="false">D23/D19</f>
-        <v>0.0729732323237851</v>
+        <v>0.0485549451782762</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +928,7 @@
       <c r="C26" s="18"/>
       <c r="D26" s="19" t="n">
         <f aca="false">D24-B24</f>
-        <v>5.52631578947367</v>
+        <v>6.07070707070709</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +938,7 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="n">
         <f aca="false">B29-C38</f>
-        <v>0.693245707075959</v>
+        <v>0.68670565323562</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,7 +974,7 @@
       </c>
       <c r="C32" s="15" t="n">
         <f aca="false">B32*I3</f>
-        <v>144.249</v>
+        <v>145.6228</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,7 +986,7 @@
       </c>
       <c r="C33" s="18" t="n">
         <f aca="false">B29*C32</f>
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C36" s="18" t="n">
         <f aca="false">C33-B33</f>
-        <v>5</v>
+        <v>6.00000000000001</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C37" s="18" t="n">
         <f aca="false">B37+C36</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C38" s="22" t="n">
         <f aca="false">C36/C32</f>
-        <v>0.034662285353798</v>
+        <v>0.0412023391941373</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1055,7 @@
       <c r="B39" s="18"/>
       <c r="C39" s="19" t="n">
         <f aca="false">C37-B37</f>
-        <v>5</v>
+        <v>6.00000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Расчеты.xlsx
+++ b/Расчеты.xlsx
@@ -20,58 +20,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t xml:space="preserve">Количество BTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Сумма - 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма + 5%</t>
+    <t xml:space="preserve">Покупка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продажа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По сколько покупать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курс 1 монеты в USDT</t>
   </si>
   <si>
     <t xml:space="preserve">% покупки</t>
   </si>
   <si>
-    <t xml:space="preserve">Курс 1 монеты в USDT</t>
+    <t xml:space="preserve">Стоимость монет в USDT</t>
   </si>
   <si>
     <t xml:space="preserve">% продажи</t>
   </si>
   <si>
+    <t xml:space="preserve">Покупается монет в USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Покупается монет BTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убытки USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доход USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бюджет (свободные USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продается монет BTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого USDT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Всего монет в USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупается монет BTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Убытки USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доход USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюджет (свободные USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продается монет BTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого USDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -243,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +318,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,11 +330,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,10 +533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +548,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="28.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.95"/>
   </cols>
   <sheetData>
@@ -555,15 +569,15 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="n">
-        <f aca="false">D5-E12</f>
-        <v>0.68670565323562</v>
+        <f aca="false">D5-E13</f>
+        <v>0.693245707075959</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="n">
-        <f aca="false">(100-I5)/100</f>
-        <v>0.99</v>
+        <f aca="false">(100-I6)/100</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,8 +595,8 @@
         <v>2</v>
       </c>
       <c r="I3" s="11" t="n">
-        <f aca="false">1+(I6/100)</f>
-        <v>1.06</v>
+        <f aca="false">1+(I7/100)</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,13 +605,17 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="n">
-        <f aca="false">B3+C8</f>
-        <v>0.735260598413896</v>
+        <f aca="false">B3+C9</f>
+        <v>0.766218939399744</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
@@ -606,16 +624,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="n">
-        <f aca="false">C4+D8</f>
-        <v>0.742687473145349</v>
+        <f aca="false">C4+D9</f>
+        <v>0.806546251999731</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="H5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
@@ -626,438 +640,494 @@
       </c>
       <c r="C6" s="15" t="n">
         <f aca="false">B6*I2</f>
-        <v>136.0062</v>
+        <v>130.511</v>
       </c>
       <c r="D6" s="15" t="n">
         <f aca="false">C6*I2</f>
-        <v>134.646138</v>
+        <v>123.98545</v>
       </c>
       <c r="E6" s="15" t="n">
         <f aca="false">B6*I3</f>
-        <v>145.6228</v>
-      </c>
-      <c r="H6" s="16" t="s">
+        <v>144.249</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="n">
-        <v>6</v>
+      <c r="I6" s="11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="16" t="n">
         <f aca="false">B3*C6</f>
-        <v>99</v>
-      </c>
-      <c r="D7" s="18" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="16" t="n">
         <f aca="false">C4*D6</f>
-        <v>99</v>
-      </c>
-      <c r="E7" s="18" t="n">
+        <v>95</v>
+      </c>
+      <c r="E7" s="16" t="n">
         <f aca="false">D5*E6</f>
-        <v>108.152229364351</v>
+        <v>116.343490304709</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="n">
+        <f aca="false">I4</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <f aca="false">I4</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="20" t="n">
         <f aca="false">B7/B6</f>
         <v>0.727907992429757</v>
       </c>
-      <c r="C8" s="19" t="n">
-        <f aca="false">C9/C6</f>
-        <v>0.00735260598413885</v>
-      </c>
-      <c r="D8" s="19" t="n">
-        <f aca="false">D9/D6</f>
-        <v>0.00742687473145349</v>
-      </c>
-      <c r="E8" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="20" t="n">
+        <f aca="false">C8/C6</f>
+        <v>0.0383109469699872</v>
+      </c>
+      <c r="D9" s="20" t="n">
+        <f aca="false">D8/D6</f>
+        <v>0.0403273125999865</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
         <f aca="false">B7-C7</f>
-        <v>0.999999999999986</v>
-      </c>
-      <c r="D9" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="16" t="n">
         <f aca="false">B7-D7</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18" t="n">
+        <v>5.00000000000001</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="n">
         <f aca="false">E7-B7</f>
-        <v>8.15222936435059</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C11" s="18" t="n">
-        <f aca="false">B11-C9</f>
-        <v>19</v>
-      </c>
-      <c r="D11" s="18" t="n">
-        <f aca="false">C11-D9</f>
-        <v>18</v>
-      </c>
-      <c r="E11" s="18" t="n">
-        <f aca="false">D11+E10</f>
-        <v>26.1522293643506</v>
+        <v>16.3434903047091</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <f aca="false">E10/E6</f>
-        <v>0.0559818199097297</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <f aca="false">B12-C8</f>
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <f aca="false">C12-D8</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="n">
+        <f aca="false">D12+E11</f>
+        <v>26.3434903047091</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="n">
-        <f aca="false">E11-B11</f>
-        <v>6.1522293643506</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <f aca="false">E11/E6</f>
+        <v>0.113300544923772</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="20" t="n">
+        <f aca="false">E12-B12</f>
+        <v>6.34349030470914</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="n">
-        <f aca="false">C17-D25</f>
-        <v>0.68670565323562</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="8" t="n">
-        <f aca="false">B20/B19</f>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="n">
+        <f aca="false">C18-D27</f>
+        <v>0.693245707075959</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <f aca="false">B21/B20</f>
         <v>0.727907992429757</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="n">
-        <f aca="false">B16+C21</f>
-        <v>0.735260598413896</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="n">
+        <f aca="false">B17+C23</f>
+        <v>0.766218939399744</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15" t="n">
-        <v>137.38</v>
-      </c>
-      <c r="C19" s="15" t="n">
-        <f aca="false">B19*I2</f>
-        <v>136.0062</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <f aca="false">B19*I3</f>
-        <v>145.6228</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="18" t="n">
-        <f aca="false">B16*C19</f>
-        <v>99</v>
-      </c>
-      <c r="D20" s="18" t="n">
-        <f aca="false">C17*D19</f>
-        <v>107.070707070707</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="15" t="n">
+        <v>137.38</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <f aca="false">B20*I2</f>
+        <v>130.511</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <f aca="false">B20*I3</f>
+        <v>144.249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="19" t="n">
-        <f aca="false">B20/B19</f>
+        <v>6</v>
+      </c>
+      <c r="B21" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" s="16" t="n">
+        <f aca="false">B17*C20</f>
+        <v>95</v>
+      </c>
+      <c r="D21" s="16" t="n">
+        <f aca="false">C18*D20</f>
+        <v>110.526315789474</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="n">
+        <f aca="false">I4</f>
+        <v>5</v>
+      </c>
+      <c r="D22" s="19" t="n">
+        <f aca="false">I18</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="20" t="n">
+        <f aca="false">B21/B20</f>
         <v>0.727907992429757</v>
       </c>
-      <c r="C21" s="19" t="n">
-        <f aca="false">C22/C19</f>
-        <v>0.00735260598413885</v>
-      </c>
-      <c r="D21" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="n">
-        <f aca="false">B20-C20</f>
-        <v>0.999999999999986</v>
-      </c>
-      <c r="D22" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18" t="n">
-        <f aca="false">D20-B20</f>
-        <v>7.07070707070707</v>
+      <c r="C23" s="20" t="n">
+        <f aca="false">C22/C20</f>
+        <v>0.0383109469699872</v>
+      </c>
+      <c r="D23" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B24" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <f aca="false">B21-C21</f>
+        <v>5</v>
+      </c>
+      <c r="D24" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="n">
+        <f aca="false">D21-B21</f>
+        <v>10.5263157894737</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="18" t="n">
-        <f aca="false">B24-C22</f>
-        <v>19</v>
-      </c>
-      <c r="D24" s="18" t="n">
-        <f aca="false">C24+D23</f>
-        <v>26.0707070707071</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22" t="n">
-        <f aca="false">D23/D19</f>
-        <v>0.0485549451782762</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19" t="n">
-        <f aca="false">D24-B24</f>
-        <v>6.07070707070709</v>
+      <c r="C26" s="16" t="n">
+        <f aca="false">B26-C22</f>
+        <v>15</v>
+      </c>
+      <c r="D26" s="16" t="n">
+        <f aca="false">C26+D25</f>
+        <v>25.5263157894737</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <f aca="false">D25/D20</f>
+        <v>0.0729732323237851</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="20" t="n">
+        <f aca="false">D26-B26</f>
+        <v>5.52631578947367</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>0.05</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="n">
-        <f aca="false">B29-C38</f>
-        <v>0.68670565323562</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B29" s="8" t="n">
-        <f aca="false">B33/B32</f>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="n">
+        <f aca="false">B31-C41</f>
+        <v>0.693245707075959</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <f aca="false">B35/B34</f>
         <v>0.727907992429757</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="15" t="n">
-        <v>137.38</v>
-      </c>
-      <c r="C32" s="15" t="n">
-        <f aca="false">B32*I3</f>
-        <v>145.6228</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="18" t="n">
-        <v>100</v>
-      </c>
-      <c r="C33" s="18" t="n">
-        <f aca="false">B29*C32</f>
-        <v>106</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="19" t="n">
-        <f aca="false">B33/B32</f>
-        <v>0.727907992429757</v>
-      </c>
-      <c r="C34" s="18" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="15" t="n">
+        <v>137.38</v>
+      </c>
+      <c r="C34" s="15" t="n">
+        <f aca="false">B34*I3</f>
+        <v>144.249</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C35" s="16" t="n">
+        <f aca="false">B31*C34</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="18" t="n">
-        <f aca="false">C33-B33</f>
-        <v>6.00000000000001</v>
+      <c r="B36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="20" t="n">
+        <f aca="false">B35/B34</f>
+        <v>0.727907992429757</v>
+      </c>
+      <c r="C37" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="18" t="n">
+      <c r="B38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="n">
+        <f aca="false">C35-B35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="C37" s="18" t="n">
-        <f aca="false">B37+C36</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="22" t="n">
-        <f aca="false">C36/C32</f>
-        <v>0.0412023391941373</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="n">
-        <f aca="false">C37-B37</f>
-        <v>6.00000000000001</v>
-      </c>
-    </row>
+      <c r="C40" s="16" t="n">
+        <f aca="false">B40+C39</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="23" t="n">
+        <f aca="false">C39/C34</f>
+        <v>0.034662285353798</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="20" t="n">
+        <f aca="false">C40-B40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Расчеты.xlsx
+++ b/Расчеты.xlsx
@@ -90,16 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="#,##0"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[RED]\-#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000;[RED]\-#,##0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +159,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -269,7 +271,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,7 +303,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,7 +311,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,56 +323,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -559,18 +561,18 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.95"/>
@@ -632,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>5</v>
@@ -648,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>1</v>
+        <v>2276.16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
@@ -664,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -716,7 +718,7 @@
       <c r="B10" s="14" t="n">
         <v>0.999</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="I10" s="0"/>
@@ -740,114 +742,114 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="17" t="n">
         <v>0.05</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="n">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="20" t="n">
         <f aca="false">B19/B17</f>
-        <v>10</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="22" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="n">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="n">
         <f aca="false">B14+C20</f>
-        <v>15.2631578947368</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+        <v>0.0110990255055606</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="22" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="n">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="n">
         <f aca="false">C15+D20</f>
-        <v>20.803324099723</v>
-      </c>
-      <c r="E16" s="17"/>
+        <v>0.0135330223269555</v>
+      </c>
+      <c r="E16" s="18"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <f aca="false">B5</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="23" t="n">
+        <v>2276.16</v>
+      </c>
+      <c r="C17" s="24" t="n">
         <f aca="false">B17*B8</f>
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="23" t="n">
+        <v>2162.352</v>
+      </c>
+      <c r="D17" s="24" t="n">
         <f aca="false">C17*B8</f>
-        <v>0.9025</v>
-      </c>
-      <c r="E17" s="23" t="n">
+        <v>2054.2344</v>
+      </c>
+      <c r="E17" s="24" t="n">
         <f aca="false">B17*B9</f>
-        <v>1.05</v>
+        <v>2389.968</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="24" t="n">
         <f aca="false">B19</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="24" t="n">
         <f aca="false">B14*C17</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="D18" s="24" t="n">
         <f aca="false">C15*D17</f>
-        <v>13.775</v>
+        <v>22.8</v>
       </c>
       <c r="E18" s="24" t="n">
         <f aca="false">D16*E17</f>
-        <v>21.8434903047091</v>
+        <v>32.3434903047091</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="25" t="n">
         <f aca="false">B6</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="25" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
-      <c r="D19" s="26" t="n">
+      <c r="D19" s="25" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
@@ -855,386 +857,429 @@
       <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="27" t="n">
+      <c r="B20" s="24" t="n">
         <f aca="false">B19/B17</f>
-        <v>10</v>
-      </c>
-      <c r="C20" s="27" t="n">
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C20" s="24" t="n">
         <f aca="false">C19/C17</f>
-        <v>5.26315789473684</v>
-      </c>
-      <c r="D20" s="27" t="n">
+        <v>0.00231229698032513</v>
+      </c>
+      <c r="D20" s="24" t="n">
         <f aca="false">D19/D17</f>
-        <v>5.54016620498615</v>
-      </c>
-      <c r="E20" s="25"/>
+        <v>0.00243399682139487</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="25" t="n">
         <f aca="false">B4-B19</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C21" s="25" t="n">
         <f aca="false">B21-C19</f>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D21" s="25" t="n">
         <f aca="false">C21-D19</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E21" s="25" t="n">
         <f aca="false">D21</f>
+        <v>70</v>
+      </c>
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="n">
+        <f aca="false">D16</f>
+        <v>0.0135330223269555</v>
+      </c>
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="n">
+        <f aca="false">(E21+E18)-B4</f>
+        <v>2.34349030470915</v>
+      </c>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="n">
+        <f aca="false">E23*B10^4</f>
+        <v>2.33413039506052</v>
+      </c>
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23" t="n">
-        <f aca="false">D16</f>
-        <v>20.803324099723</v>
-      </c>
-      <c r="I22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="27" t="n">
-        <f aca="false">(E21+E18)-B4</f>
-        <v>1.84349030470914</v>
-      </c>
-      <c r="I23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27" t="n">
-        <f aca="false">E23*B10^4</f>
-        <v>1.83612739706002</v>
-      </c>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="n">
+      <c r="E26" s="27"/>
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="B27" s="19" t="n">
+      <c r="B27" s="20" t="n">
         <f aca="false">B32/B30</f>
-        <v>10</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="22" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17" t="n">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="n">
         <f aca="false">B27+C33</f>
-        <v>15.2631578947368</v>
-      </c>
-      <c r="D28" s="17"/>
+        <v>0.0110990255055606</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="27"/>
       <c r="I28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
+      <c r="A29" s="22" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="27"/>
       <c r="I29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="17.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="24" t="n">
         <f aca="false">B5</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="23" t="n">
+        <v>2276.16</v>
+      </c>
+      <c r="C30" s="24" t="n">
         <f aca="false">B30*B8</f>
-        <v>0.95</v>
-      </c>
-      <c r="D30" s="23" t="n">
+        <v>2162.352</v>
+      </c>
+      <c r="D30" s="24" t="n">
         <f aca="false">B30*B9</f>
-        <v>1.05</v>
-      </c>
+        <v>2389.968</v>
+      </c>
+      <c r="E30" s="27"/>
       <c r="I30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="24" t="n">
         <f aca="false">B32</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C31" s="24" t="n">
         <f aca="false">B27*C30</f>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="D31" s="24" t="n">
         <f aca="false">C28*D30</f>
-        <v>16.0263157894737</v>
-      </c>
+        <v>26.5263157894737</v>
+      </c>
+      <c r="E31" s="27"/>
       <c r="I31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="25" t="n">
         <f aca="false">B6</f>
-        <v>10</v>
-      </c>
-      <c r="C32" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="n">
         <f aca="false">B1</f>
         <v>5</v>
       </c>
       <c r="D32" s="25"/>
+      <c r="E32" s="27"/>
       <c r="I32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27" t="n">
+      <c r="B33" s="24" t="n">
         <f aca="false">B32/B30</f>
-        <v>10</v>
-      </c>
-      <c r="C33" s="27" t="n">
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C33" s="24" t="n">
         <f aca="false">C32/C30</f>
-        <v>5.26315789473684</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>0.00231229698032513</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
       <c r="I33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="25" t="n">
         <f aca="false">B4-B32</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C34" s="25" t="n">
         <f aca="false">B34-C32</f>
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D34" s="25" t="n">
         <f aca="false">C34</f>
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E34" s="27"/>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="23" t="n">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="n">
         <f aca="false">C28</f>
-        <v>15.2631578947368</v>
-      </c>
+        <v>0.0110990255055606</v>
+      </c>
+      <c r="E35" s="27"/>
       <c r="I35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27" t="n">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="n">
         <f aca="false">(D34+D31)-B4</f>
-        <v>1.02631578947369</v>
-      </c>
+        <v>1.52631578947369</v>
+      </c>
+      <c r="E36" s="27"/>
       <c r="I36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27" t="n">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="n">
         <f aca="false">D36*B10^3</f>
-        <v>1.02323992002632</v>
-      </c>
+        <v>1.52174141952632</v>
+      </c>
+      <c r="E37" s="27"/>
       <c r="I37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
       <c r="I38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
+      <c r="A39" s="17" t="n">
         <v>0.05</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="n">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="n">
         <v>0</v>
       </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="n">
+      <c r="A40" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="B40" s="19" t="n">
+      <c r="B40" s="20" t="n">
         <f aca="false">B45/B43</f>
-        <v>10</v>
-      </c>
-      <c r="C40" s="20"/>
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="I40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="n">
+      <c r="A41" s="22" t="n">
         <v>-0.05</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="I41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="n">
+      <c r="A42" s="22" t="n">
         <v>-0.1</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="I42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="23" t="n">
+      <c r="B43" s="24" t="n">
         <f aca="false">B5</f>
-        <v>1</v>
-      </c>
-      <c r="C43" s="23" t="n">
+        <v>2276.16</v>
+      </c>
+      <c r="C43" s="24" t="n">
         <f aca="false">B43*B9</f>
-        <v>1.05</v>
-      </c>
+        <v>2389.968</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
       <c r="I43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="24" t="n">
         <f aca="false">B45</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C44" s="24" t="n">
         <f aca="false">B40*C43</f>
-        <v>10.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
       <c r="I44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="25" t="n">
         <f aca="false">B6</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C45" s="25"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="I45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="27" t="n">
+      <c r="B46" s="24" t="n">
         <f aca="false">B45/B43</f>
-        <v>10</v>
-      </c>
-      <c r="C46" s="25"/>
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
       <c r="I46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="25" t="n">
         <f aca="false">B4-B45</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C47" s="25" t="n">
         <f aca="false">B47</f>
-        <v>10</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="I47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="23" t="n">
+      <c r="B48" s="24"/>
+      <c r="C48" s="24" t="n">
         <f aca="false">B40</f>
-        <v>10</v>
-      </c>
+        <v>0.00878672852523548</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="I48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="27" t="n">
+      <c r="B49" s="24"/>
+      <c r="C49" s="24" t="n">
         <f aca="false">(C47+C44)-B4</f>
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="23" t="n">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24" t="n">
         <f aca="false">C49*B10^2</f>
-        <v>0.4990005</v>
-      </c>
-      <c r="D50" s="0"/>
+        <v>0.998001</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="27"/>
       <c r="I50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
